--- a/data/trans_dic/P16A18-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Estudios-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -884,7 +884,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A18-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Estudios-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0281435411538895</v>
+        <v>0.02705316362088812</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04840092458944424</v>
+        <v>0.04874282656261043</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02599030530991103</v>
+        <v>0.02432179121818706</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00424950833132762</v>
+        <v>0.004274782203021086</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06560809844313699</v>
+        <v>0.06538550440782069</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0960833042426722</v>
+        <v>0.09453581551855018</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07234389609427309</v>
+        <v>0.07352254829088264</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0501159700600678</v>
+        <v>0.04635279320256978</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07448552766183124</v>
+        <v>0.07442461007224614</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08631717899559338</v>
+        <v>0.08763109825219337</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05516831283061434</v>
+        <v>0.05438224002109805</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01876232046627169</v>
+        <v>0.01918165068856244</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1049155024829627</v>
+        <v>0.1044333218476136</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1190834427501957</v>
+        <v>0.1194812245857703</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08123015200329897</v>
+        <v>0.07802582795331364</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03584519246240628</v>
+        <v>0.03587889358627386</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1134876687625613</v>
+        <v>0.1115475612323081</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07218396477574836</v>
+        <v>0.06846117512932838</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04922180251773225</v>
+        <v>0.04865717028721992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0226940045548715</v>
+        <v>0.0222821977174667</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1784947055899218</v>
+        <v>0.1831214212071511</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1346290927147175</v>
+        <v>0.1331944123378148</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09496031815697638</v>
+        <v>0.09364879885543664</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06060259549385825</v>
+        <v>0.05802175095129298</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0777385648503653</v>
+        <v>0.07860623264364419</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08429103727200034</v>
+        <v>0.08517243654607749</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05421026691164529</v>
+        <v>0.05563624859995011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02258502309472168</v>
+        <v>0.02245585338437339</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1018431405219808</v>
+        <v>0.1013995315425681</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1088355690934989</v>
+        <v>0.1103304298612393</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0740137297228441</v>
+        <v>0.07562811200507338</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03728848053856659</v>
+        <v>0.03628731838101322</v>
       </c>
     </row>
     <row r="16">
@@ -981,16 +981,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13845</v>
+        <v>13309</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22137</v>
+        <v>22294</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7072</v>
+        <v>6618</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7">
@@ -1001,16 +1001,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32275</v>
+        <v>32166</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>43946</v>
+        <v>43238</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19685</v>
+        <v>20006</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7475</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="8">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>107225</v>
+        <v>107137</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>133382</v>
+        <v>135413</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>86646</v>
+        <v>85411</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>29481</v>
+        <v>30140</v>
       </c>
     </row>
     <row r="11">
@@ -1085,16 +1085,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>151030</v>
+        <v>150336</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>184015</v>
+        <v>184629</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>127578</v>
+        <v>122545</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>56323</v>
+        <v>56376</v>
       </c>
     </row>
     <row r="12">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>48388</v>
+        <v>47560</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>30559</v>
+        <v>28983</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>23622</v>
+        <v>23351</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12683</v>
+        <v>12453</v>
       </c>
     </row>
     <row r="15">
@@ -1169,16 +1169,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>76104</v>
+        <v>78077</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56995</v>
+        <v>56388</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>45573</v>
+        <v>44943</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33868</v>
+        <v>32426</v>
       </c>
     </row>
     <row r="16">
@@ -1233,16 +1233,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>183296</v>
+        <v>185342</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>204488</v>
+        <v>206627</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>125908</v>
+        <v>129220</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>51478</v>
+        <v>51184</v>
       </c>
     </row>
     <row r="19">
@@ -1253,16 +1253,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>240131</v>
+        <v>239085</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>264033</v>
+        <v>267660</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>171903</v>
+        <v>175653</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>84992</v>
+        <v>82710</v>
       </c>
     </row>
     <row r="20">
